--- a/BalanceSheet/UPS_bal.xlsx
+++ b/BalanceSheet/UPS_bal.xlsx
@@ -5112,7 +5112,7 @@
         <v>22160000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>22426000000.0</v>
+        <v>19497000000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>19363000000.0</v>
@@ -5239,7 +5239,7 @@
         <v>31620000000.0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>28167000000.0</v>
+        <v>25238000000.0</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>23901000000.0</v>
